--- a/testdata/OrangeTestData1.xlsx
+++ b/testdata/OrangeTestData1.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13464" windowHeight="4116" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9335" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Personal_Details" sheetId="9" r:id="rId1"/>
     <sheet name="Contact_Details" sheetId="2" r:id="rId2"/>
-    <sheet name="SocialMedia_Details" sheetId="11" r:id="rId3"/>
-    <sheet name="EmergencyContact_Details" sheetId="3" r:id="rId4"/>
-    <sheet name="Dependent_Details" sheetId="4" r:id="rId5"/>
-    <sheet name="Immigration_Details" sheetId="5" r:id="rId6"/>
-    <sheet name="Membership_Details" sheetId="6" r:id="rId7"/>
-    <sheet name="WorkExperience_Details1" sheetId="7" r:id="rId8"/>
-    <sheet name="AddLanguage" sheetId="8" r:id="rId9"/>
-    <sheet name="Invalid_Personal" sheetId="10" r:id="rId10"/>
-    <sheet name="Invalid_Contact" sheetId="13" r:id="rId11"/>
-    <sheet name="Invalid_Emergency" sheetId="12" r:id="rId12"/>
+    <sheet name="EmergencyContact_Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Dependent_Details" sheetId="4" r:id="rId4"/>
+    <sheet name="Immigration_Details" sheetId="5" r:id="rId5"/>
+    <sheet name="Membership_Details" sheetId="6" r:id="rId6"/>
+    <sheet name="WorkExperience_Details1" sheetId="7" r:id="rId7"/>
+    <sheet name="AddLanguage" sheetId="8" r:id="rId8"/>
+    <sheet name="Invalid_Personal" sheetId="10" r:id="rId9"/>
+    <sheet name="Invalid_Contact" sheetId="13" r:id="rId10"/>
+    <sheet name="Invalid_Emergency" sheetId="12" r:id="rId11"/>
+    <sheet name="SocialMedia_Details1" sheetId="14" r:id="rId12"/>
+    <sheet name="Invalid_Dependent" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>First Name</t>
   </si>
@@ -94,6 +94,120 @@
     <t>other@123Gmail.com</t>
   </si>
   <si>
+    <t>Emergency Contact Name</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>0247899</t>
+  </si>
+  <si>
+    <t>Dependent Name</t>
+  </si>
+  <si>
+    <t>Dependent DOB</t>
+  </si>
+  <si>
+    <t>Sima</t>
+  </si>
+  <si>
+    <t>Tue, 03 May 2022</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Issued Date</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Wed, 11 Mar 2020</t>
+  </si>
+  <si>
+    <t>Tue, 13 May 2025</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Passport Issued</t>
+  </si>
+  <si>
+    <t>Subscription Amount</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Fluency</t>
+  </si>
+  <si>
+    <t>Competency</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>;Kh</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Ooty</t>
+  </si>
+  <si>
+    <t>ooty!123@gmail.com</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -103,121 +217,16 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>Emergency Contact Name</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Mobile No</t>
-  </si>
-  <si>
-    <t>Office Phone</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>0247899</t>
-  </si>
-  <si>
-    <t>Dependent Name</t>
-  </si>
-  <si>
-    <t>Dependent DOB</t>
-  </si>
-  <si>
-    <t>Sima</t>
-  </si>
-  <si>
-    <t>Tue, 03 May 2022</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Issued Date</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Wed, 11 Mar 2020</t>
-  </si>
-  <si>
-    <t>Tue, 13 May 2025</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Passport Issued</t>
-  </si>
-  <si>
-    <t>Subscription Amount</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Xyz</t>
-  </si>
-  <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Fluency</t>
-  </si>
-  <si>
-    <t>Competency</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>;Kh</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>Ooty</t>
-  </si>
-  <si>
-    <t>ooty!123@gmail.com</t>
+    <t>https://twitter.com/i/flow/login</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Fri, 17 Jan 1997</t>
   </si>
 </sst>
 </file>
@@ -225,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,6 +270,76 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -269,62 +348,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,29 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,20 +386,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +408,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,7 +432,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,181 +546,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,25 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +671,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,175 +738,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -883,20 +902,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -955,9 +972,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFFF"/>
       <color rgb="00A9D08E"/>
       <color rgb="00000000"/>
+      <color rgb="00FFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1238,36 +1255,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>1848</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>10000</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1278,57 +1295,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="43.2" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6">
-        <v>45789</v>
-      </c>
-      <c r="B2" s="6">
-        <v>12538</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -1348,54 +1314,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>602568</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>9716039602</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1409,7 +1375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1426,37 +1392,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1235</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7895</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1244452</v>
+      </c>
+      <c r="E2" s="7">
+        <v>103258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1235</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7895</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1244452</v>
-      </c>
-      <c r="E2" s="3">
-        <v>103258</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1509,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -1485,54 +1524,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>6000058</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>9716039602</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1547,42 +1586,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1600,36 +1603,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>9716039603</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>2246789263</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1656,19 +1659,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>37</v>
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1694,37 +1697,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8">
-        <v>12345</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -1748,12 +1751,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.4" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>47</v>
+      <c r="A1" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>1500</v>
       </c>
     </row>
@@ -1764,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -1780,19 +1783,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -1819,29 +1822,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10">
+        <v>45789</v>
+      </c>
+      <c r="B2" s="10">
+        <v>12538</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testdata/OrangeTestData1.xlsx
+++ b/testdata/OrangeTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="18468" windowHeight="9335" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Personal_Details" sheetId="9" r:id="rId1"/>
@@ -1472,7 +1472,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1686,7 +1686,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
